--- a/models/basic_CNN/Experiments.xlsx
+++ b/models/basic_CNN/Experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\repozytoria\DeepLearning_WUT\models\basic_CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234050EE-6114-48BD-991C-7F441BC699F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B07B549-8E4E-4345-A03B-895FCB703CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{E1AFF237-2CE8-439A-961A-F738235F199A}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
   <si>
     <t>Augmentations</t>
   </si>
@@ -2794,6 +2794,13 @@
   <si>
     <t>epoch 45 TRAIN error: 1.1047, acc: 0.6120
 epoch 45 VALIDATION error: 0.8677, acc: 0.6915</t>
+  </si>
+  <si>
+    <t>brightness_contrast</t>
+  </si>
+  <si>
+    <t>epoch 48 TRAIN error: 0.7410, acc: 0.7371
+epoch 48 VALIDATION error: 0.7566, acc: 0.7420</t>
   </si>
 </sst>
 </file>
@@ -3778,7 +3785,7 @@
   <dimension ref="B2:S31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4484,6 +4491,23 @@
         <v>56</v>
       </c>
     </row>
+    <row r="18" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P27" t="s">
         <v>33</v>

--- a/models/basic_CNN/Experiments.xlsx
+++ b/models/basic_CNN/Experiments.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\repozytoria\DeepLearning_WUT\models\basic_CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B07B549-8E4E-4345-A03B-895FCB703CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA0221-1D32-4D67-BD45-8559F4F4275F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{E1AFF237-2CE8-439A-961A-F738235F199A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{E1AFF237-2CE8-439A-961A-F738235F199A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ideas" sheetId="1" r:id="rId1"/>
     <sheet name="Experiments" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="69">
   <si>
     <t>Augmentations</t>
   </si>
@@ -2802,6 +2803,20 @@
     <t>epoch 48 TRAIN error: 0.7410, acc: 0.7371
 epoch 48 VALIDATION error: 0.7566, acc: 0.7420</t>
   </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>epoch 38 TRAIN error: 0.6263, acc: 0.7777
+epoch 38 VALIDATION error: 0.7329, acc: 0.7556</t>
+  </si>
+  <si>
+    <t>cutout</t>
+  </si>
+  <si>
+    <t>epoch 18 TRAIN error: 0.7562, acc: 0.7325
+epoch 18 VALIDATION error: 0.8528, acc: 0.7082</t>
+  </si>
 </sst>
 </file>
 
@@ -2899,7 +2914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2933,9 +2948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3784,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2377E701-02D5-4AB7-AE62-89741975BF25}">
   <dimension ref="B2:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4269,23 +4281,23 @@
       <c r="D13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="12">
         <v>0</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>1E-8</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="4">
         <v>4</v>
       </c>
       <c r="L13" s="4">
@@ -4506,6 +4518,40 @@
       </c>
       <c r="P18" s="3" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
@@ -4554,4 +4600,570 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576CDA5B-DBE9-4448-B969-CB4EE2B89D86}">
+  <dimension ref="B2:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="14" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="G4" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="H6" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="H7" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="H8" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
+        <v>8</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="H9" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="4">
+        <v>8</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1E-8</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="H12" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>4</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="H14" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <v>4</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="H15" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <v>4</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>